--- a/app/src/main/assets/desease_data.xlsx
+++ b/app/src/main/assets/desease_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktros\AndroidStudioProjects\be_healthy\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B36E44-5C68-418A-8D35-DCA287F2BF08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF411F-E858-47DE-84F5-DBC59A83AFA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{4B1C56DE-772E-4008-A56D-EDA827635B8D}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>Беловатое васкуляризированное пятно на глазу вследствие помутнения роговой оболочки глаза</t>
   </si>
   <si>
-    <t>боль в глазах, чувство инородного тела в глазу, снижение зрения, светобоязнь, слезотечение, изменение цвета роговицы глаза</t>
-  </si>
-  <si>
     <t>Болезнь может привести к полной потере зрения. Лечение подразумевает хирургическое вмешательство. Советуем немедленно обратиться к врачу.</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>Приступы головной боли</t>
   </si>
   <si>
-    <t>головная боль, свтобоязнь, непереносимость громких звуков, тошнота, рвота</t>
-  </si>
-  <si>
     <t>Ибупрофен по одной таблетке не чаще, чем раз в четыре часа. Не принимать больше трех таблеток в сутки. Для детей - две таблетки в день.&amp;При температуре выше 38 - парацетамол по 1-2 таблетки 3-4 раза в день через час после еды.&amp;Аспирин симптоматически по 1-2 таблетки после еды.&amp;Церукал по одной таблетке 3 раза в день за 30 минут до приема пищи.&amp;В тяжёлых случаях: метопролол, кандесартан, амитриптилин, топиромат.</t>
   </si>
   <si>
@@ -972,9 +966,6 @@
   </si>
   <si>
     <t>Снижение качества и количества слезной жидкости, формирующей на поверхности глаза слезную пленку</t>
-  </si>
-  <si>
-    <t>ощущение инородного тела в глазу, слезотечение, ощущение сузости глаза, рези в глазах, жжение в глазах, светобоязнь, снижение зрения, засорение слезной пленки</t>
   </si>
   <si>
     <t>Капли "Слеза натуральная" по 1-2 капли по необходимости.&amp;Корнерегель по одной капле в каждый глаз 3-5 раз в сутки.&amp;Лакривит по 1-2 капли 4-8 раз в день.&amp;Офтагель по одной капле 1-4 раза в сутки.</t>
@@ -1362,7 +1353,16 @@
     <t>боли в правом подреберье, повышенная температура, чувство горечи во рту, тошнота, рвота, желтушность кожных покровов и склер глаза</t>
   </si>
   <si>
-    <t>общее недомоганеи, повышенная температура, обильное потоотделение, одышка, учащенное сердцебиение, поражения кожи, кровоточивость</t>
+    <t>ощущение соринки в глазу, слезотечение, ощущение сузости глаза, рези в глазах, жжение в глазах, светобоязнь, снижение зрения, засорение слезной пленки</t>
+  </si>
+  <si>
+    <t>боль в глазах, ощущение соринки в глазу, снижение зрения, светобоязнь, слезотечение, изменение цвета роговицы глаза</t>
+  </si>
+  <si>
+    <t>головная боль, светобоязнь, непереносимость громких звуков, тошнота, рвота</t>
+  </si>
+  <si>
+    <t>общее недомогание, повышенная температура, обильное потоотделение, одышка, учащенное сердцебиение, поражения кожи, кровоточивость</t>
   </si>
 </sst>
 </file>
@@ -1811,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AA2D12-BC08-483C-B762-BD95F6AF234A}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2090,7 +2090,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
@@ -2109,10 +2109,10 @@
         <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
@@ -2122,19 +2122,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
@@ -2144,19 +2144,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
@@ -2166,23 +2166,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2190,19 +2190,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
@@ -2212,23 +2212,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2236,23 +2236,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2260,19 +2260,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
@@ -2282,19 +2282,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
@@ -2304,19 +2304,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
@@ -2326,23 +2326,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2350,23 +2350,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2374,19 +2374,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
@@ -2396,19 +2396,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
@@ -2418,19 +2418,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
@@ -2440,23 +2440,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2464,23 +2464,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2488,23 +2488,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2512,23 +2512,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2536,19 +2536,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
@@ -2558,19 +2558,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2580,23 +2580,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2604,19 +2604,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
@@ -2626,19 +2626,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
@@ -2648,19 +2648,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
@@ -2670,19 +2670,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
@@ -2692,23 +2692,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2716,19 +2716,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
@@ -2738,23 +2738,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="E41" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
@@ -2762,19 +2762,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="F42" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2784,23 +2784,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2808,23 +2808,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2832,23 +2832,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="218.4" x14ac:dyDescent="0.3">
@@ -2856,19 +2856,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="F46" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
@@ -2878,19 +2878,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
@@ -2900,23 +2900,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>203</v>
+        <v>425</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2924,19 +2924,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="F49" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
@@ -2946,23 +2946,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2970,23 +2970,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2994,23 +2994,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3018,19 +3018,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="6"/>
@@ -3040,23 +3040,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3064,23 +3064,23 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3088,19 +3088,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="6"/>
@@ -3110,23 +3110,23 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3134,19 +3134,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
@@ -3156,19 +3156,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
@@ -3178,19 +3178,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
@@ -3200,19 +3200,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C61" s="3">
-        <v>0</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="F61" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
@@ -3222,19 +3222,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
@@ -3244,23 +3244,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3268,19 +3268,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
@@ -3290,19 +3290,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="3">
-        <v>0</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="F65" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
@@ -3312,23 +3312,23 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
@@ -3336,19 +3336,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
@@ -3358,19 +3358,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="6"/>
@@ -3380,19 +3380,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C69" s="3">
-        <v>0</v>
-      </c>
-      <c r="D69" s="9" t="s">
+      <c r="F69" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="6"/>
@@ -3402,19 +3402,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="6"/>
@@ -3424,23 +3424,23 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
@@ -3448,19 +3448,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="6"/>
@@ -3470,19 +3470,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="6"/>
@@ -3492,19 +3492,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="6"/>
@@ -3514,23 +3514,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3538,19 +3538,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
@@ -3560,19 +3560,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
@@ -3582,23 +3582,23 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>314</v>
+        <v>423</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3606,23 +3606,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3630,19 +3630,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="6"/>
@@ -3652,19 +3652,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
@@ -3674,23 +3674,23 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3698,19 +3698,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="6"/>
@@ -3720,23 +3720,23 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3744,23 +3744,23 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3768,19 +3768,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
@@ -3790,23 +3790,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3814,23 +3814,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3838,23 +3838,23 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3862,23 +3862,23 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3886,23 +3886,23 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="312" x14ac:dyDescent="0.3">
@@ -3910,19 +3910,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C92" s="3">
         <v>0</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
@@ -3932,23 +3932,23 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="390" x14ac:dyDescent="0.3">
@@ -3956,19 +3956,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C94" s="3">
         <v>0</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="6"/>
@@ -3978,19 +3978,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="6"/>
@@ -4000,23 +4000,23 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/desease_data.xlsx
+++ b/app/src/main/assets/desease_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktros\AndroidStudioProjects\be_healthy\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4191BAB6-87C4-4999-8A43-E94AB33D922E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C14B0-8695-4A00-B3F7-2F64135CD860}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B1C56DE-772E-4008-A56D-EDA827635B8D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="372">
   <si>
     <t>Id</t>
   </si>
@@ -38,24 +38,15 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Symptoms</t>
   </si>
   <si>
-    <t>Warning</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
-    <t>Magic</t>
-  </si>
-  <si>
     <t>Аллергия</t>
   </si>
   <si>
@@ -1074,13 +1065,94 @@
   </si>
   <si>
     <t>Жаропонижающие средства при лихорадке выше 38.5-39 градусов и плохом самочувствии (более низкую температуру сбивать не стоит) &amp;Препараты от насморка – отривин, санорин, пиносол по 1–2 капли в каждый носовой ход 3–4 раза в сутки&amp;Антисептические и противовоспалительные средства для зева (тантум-верде, гексорал,скаметон) по 1 впрыскиванию в течение 1–2 секунд 2 раза в сутки&amp;Противокашлевые (синекод, коделак) по 15 мл 4 раза в сутки, отхаркивающие (туссин, сироп подорожника) по 2-4 чайные ложки внутрь 3-4 раза/сут после еды, разжижающие мокроту средства (аскорил, ацц) по 10 мл сиропа 2–3 раза в день &amp;Можно применять методы народной терапии – отвары трав, чай с медом, малиной, молоко с медом&amp;Желательно обратиться к врачу что бы поставить точную категорию гриппа (А, B  или C)</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Аллерголог</t>
+  </si>
+  <si>
+    <t>Оториноларинголог</t>
+  </si>
+  <si>
+    <t>Неонатолог</t>
+  </si>
+  <si>
+    <t>Терапевт</t>
+  </si>
+  <si>
+    <t>Кардиолог</t>
+  </si>
+  <si>
+    <t>Аллерголог-иммунолог</t>
+  </si>
+  <si>
+    <t>Ангиохирург</t>
+  </si>
+  <si>
+    <t>Психотерапевт</t>
+  </si>
+  <si>
+    <t>Гинеколог</t>
+  </si>
+  <si>
+    <t>Невролог</t>
+  </si>
+  <si>
+    <t>Хирург</t>
+  </si>
+  <si>
+    <t>Инфекционист</t>
+  </si>
+  <si>
+    <t>Дерматолог</t>
+  </si>
+  <si>
+    <t>Эндокринолог</t>
+  </si>
+  <si>
+    <t>Офтальмолог</t>
+  </si>
+  <si>
+    <t>Гастроэнтеролог</t>
+  </si>
+  <si>
+    <t>Стоматолог</t>
+  </si>
+  <si>
+    <t>Офтальмолог-хирург</t>
+  </si>
+  <si>
+    <t>Нефролог</t>
+  </si>
+  <si>
+    <t>Педиатор</t>
+  </si>
+  <si>
+    <t>Невролог.</t>
+  </si>
+  <si>
+    <t>Отоларинголог</t>
+  </si>
+  <si>
+    <t>Диетолог</t>
+  </si>
+  <si>
+    <t>Ревматолог</t>
+  </si>
+  <si>
+    <t>Ортопед</t>
+  </si>
+  <si>
+    <t>Уролог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1170,30 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF363636"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1135,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1151,6 +1247,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1467,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AA2D12-BC08-483C-B762-BD95F6AF234A}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,32 +1594,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>346</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1529,18 +1627,20 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1550,18 +1650,20 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>348</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1571,18 +1673,20 @@
         <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>240</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1592,18 +1696,20 @@
         <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1613,18 +1719,20 @@
         <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>351</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1634,18 +1742,20 @@
         <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="10" t="s">
+        <v>352</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1655,18 +1765,20 @@
         <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1676,18 +1788,20 @@
         <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1697,18 +1811,20 @@
         <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1718,18 +1834,20 @@
         <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>325</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1739,18 +1857,20 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1760,18 +1880,20 @@
         <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1781,18 +1903,20 @@
         <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1802,18 +1926,20 @@
         <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1823,18 +1949,20 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1844,18 +1972,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1865,18 +1995,20 @@
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1886,18 +2018,20 @@
         <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1907,18 +2041,20 @@
         <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1928,18 +2064,20 @@
         <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1949,18 +2087,20 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="10" t="s">
+        <v>359</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1970,18 +2110,20 @@
         <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1991,18 +2133,20 @@
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -2012,18 +2156,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>344</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -2033,18 +2179,20 @@
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -2054,18 +2202,20 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2075,18 +2225,20 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -2096,18 +2248,20 @@
         <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -2117,18 +2271,20 @@
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -2138,18 +2294,20 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="10" t="s">
+        <v>348</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -2159,18 +2317,20 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -2180,18 +2340,20 @@
         <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2201,18 +2363,20 @@
         <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>363</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -2222,18 +2386,20 @@
         <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -2243,18 +2409,20 @@
         <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -2264,18 +2432,20 @@
         <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -2285,18 +2455,20 @@
         <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2306,18 +2478,20 @@
         <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -2327,18 +2501,20 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -2348,18 +2524,20 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -2369,18 +2547,20 @@
         <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>366</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -2390,18 +2570,20 @@
         <v>63</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F44" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -2411,18 +2593,20 @@
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -2432,18 +2616,20 @@
         <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -2453,18 +2639,20 @@
         <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -2474,18 +2662,20 @@
         <v>26</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -2495,18 +2685,20 @@
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -2516,18 +2708,20 @@
         <v>80</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>311</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -2537,18 +2731,20 @@
         <v>17</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>343</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -2558,18 +2754,20 @@
         <v>15</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -2579,18 +2777,20 @@
         <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F53" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>369</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -2600,18 +2800,20 @@
         <v>73</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F54" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>369</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -2621,18 +2823,20 @@
         <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -2642,18 +2846,20 @@
         <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F56" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -2663,18 +2869,20 @@
         <v>11</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -2684,18 +2892,20 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -2705,18 +2915,20 @@
         <v>40</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -2726,18 +2938,20 @@
         <v>64</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F60" s="7"/>
+      <c r="F60" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -2747,18 +2961,20 @@
         <v>37</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -2768,18 +2984,20 @@
         <v>39</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -2789,18 +3007,20 @@
         <v>74</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>295</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>370</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -2810,18 +3030,20 @@
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -2831,18 +3053,20 @@
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -2852,18 +3076,20 @@
         <v>86</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F66" s="7"/>
+        <v>328</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -2873,18 +3099,20 @@
         <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -2894,18 +3122,20 @@
         <v>51</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -2915,18 +3145,20 @@
         <v>77</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F69" s="7"/>
+        <v>304</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -2936,18 +3168,20 @@
         <v>78</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F70" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -2957,18 +3191,20 @@
         <v>75</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F71" s="7"/>
+        <v>298</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -2978,18 +3214,20 @@
         <v>9</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="12" t="s">
+        <v>359</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -2999,18 +3237,20 @@
         <v>32</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F73" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -3020,18 +3260,20 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -3041,18 +3283,20 @@
         <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F75" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -3062,18 +3306,20 @@
         <v>45</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F76" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -3083,18 +3329,20 @@
         <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F77" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>349</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -3104,18 +3352,20 @@
         <v>6</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -3125,18 +3375,20 @@
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>371</v>
+      </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -3146,18 +3398,20 @@
         <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F80" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -3167,18 +3421,20 @@
         <v>13</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -3188,18 +3444,20 @@
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F82" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -3209,18 +3467,20 @@
         <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -3230,18 +3490,20 @@
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F84" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -3251,18 +3513,20 @@
         <v>41</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F85" s="7"/>
+      <c r="F85" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -3272,18 +3536,20 @@
         <v>42</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F86" s="7"/>
+      <c r="F86" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -3293,18 +3559,20 @@
         <v>47</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F87" s="7"/>
+      <c r="F87" s="12" t="s">
+        <v>360</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>

--- a/app/src/main/assets/desease_data.xlsx
+++ b/app/src/main/assets/desease_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktros\AndroidStudioProjects\be_healthy\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C14B0-8695-4A00-B3F7-2F64135CD860}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8CD3C8-BCFD-448E-937C-0100497121C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B1C56DE-772E-4008-A56D-EDA827635B8D}"/>
   </bookViews>
@@ -710,9 +710,6 @@
     <t>головная боль</t>
   </si>
   <si>
-    <t>Парацетомол&amp;Ибупрофен&amp;Некст</t>
-  </si>
-  <si>
     <t>Бессонница</t>
   </si>
   <si>
@@ -1146,6 +1143,9 @@
   </si>
   <si>
     <t>Уролог</t>
+  </si>
+  <si>
+    <t>Парацетомол по 1–2 табл. до 4 раз в день &amp;Ибупрофен 1–2 таблетки 2 раза в день с перерывом 4-6 часов &amp;Некст по 1 таблетке 2 раза в сутки</t>
   </si>
 </sst>
 </file>
@@ -1567,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AA2D12-BC08-483C-B762-BD95F6AF234A}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1616,7 +1616,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1639,7 +1639,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1662,7 +1662,7 @@
         <v>153</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1676,16 +1676,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1699,16 +1699,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1719,19 +1719,19 @@
         <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1742,19 +1742,19 @@
         <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1765,19 +1765,19 @@
         <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1788,19 +1788,19 @@
         <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1811,19 +1811,19 @@
         <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1834,19 +1834,19 @@
         <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1869,7 +1869,7 @@
         <v>124</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1883,16 +1883,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1903,19 +1903,19 @@
         <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1938,7 +1938,7 @@
         <v>143</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1961,7 +1961,7 @@
         <v>60</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1984,7 +1984,7 @@
         <v>104</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2007,7 +2007,7 @@
         <v>195</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2021,16 +2021,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2053,7 +2053,7 @@
         <v>150</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2067,16 +2067,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="F22" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2099,7 +2099,7 @@
         <v>78</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2122,7 +2122,7 @@
         <v>212</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2142,10 +2142,10 @@
         <v>225</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2165,10 +2165,10 @@
         <v>134</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2182,16 +2182,16 @@
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="F27" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2214,7 +2214,7 @@
         <v>163</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2237,7 +2237,7 @@
         <v>128</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2260,7 +2260,7 @@
         <v>166</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2271,7 +2271,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>129</v>
@@ -2283,7 +2283,7 @@
         <v>131</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -2306,7 +2306,7 @@
         <v>56</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2329,7 +2329,7 @@
         <v>170</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2343,16 +2343,16 @@
         <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="F34" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -2375,7 +2375,7 @@
         <v>215</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2398,7 +2398,7 @@
         <v>111</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -2409,7 +2409,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>144</v>
@@ -2421,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -2438,13 +2438,13 @@
         <v>176</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2467,7 +2467,7 @@
         <v>201</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -2490,7 +2490,7 @@
         <v>208</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -2513,7 +2513,7 @@
         <v>52</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2524,7 +2524,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>138</v>
@@ -2536,7 +2536,7 @@
         <v>140</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -2553,13 +2553,13 @@
         <v>222</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>223</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2573,16 +2573,16 @@
         <v>25</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="F44" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -2605,7 +2605,7 @@
         <v>221</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -2616,19 +2616,19 @@
         <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="F46" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -2639,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>95</v>
@@ -2651,7 +2651,7 @@
         <v>97</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -2662,7 +2662,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>135</v>
@@ -2674,7 +2674,7 @@
         <v>137</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -2691,13 +2691,13 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>196</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -2711,16 +2711,16 @@
         <v>31</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -2740,10 +2740,10 @@
         <v>107</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -2766,7 +2766,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -2780,16 +2780,16 @@
         <v>34</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="F53" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -2803,16 +2803,16 @@
         <v>35</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="F54" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -2835,7 +2835,7 @@
         <v>91</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -2849,16 +2849,16 @@
         <v>38</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="F56" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -2881,7 +2881,7 @@
         <v>89</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -2904,7 +2904,7 @@
         <v>74</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -2927,7 +2927,7 @@
         <v>184</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -2938,19 +2938,19 @@
         <v>64</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="F60" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -2973,7 +2973,7 @@
         <v>174</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -2984,7 +2984,7 @@
         <v>39</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>178</v>
@@ -2996,7 +2996,7 @@
         <v>180</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -3010,16 +3010,16 @@
         <v>40</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="F63" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -3030,19 +3030,19 @@
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="F64" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -3056,16 +3056,16 @@
         <v>41</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="F65" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -3076,19 +3076,19 @@
         <v>86</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="F66" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -3099,7 +3099,7 @@
         <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>116</v>
@@ -3111,7 +3111,7 @@
         <v>118</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -3134,7 +3134,7 @@
         <v>219</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -3145,19 +3145,19 @@
         <v>77</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="F69" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -3171,16 +3171,16 @@
         <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="F70" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -3191,19 +3191,19 @@
         <v>75</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="F71" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -3226,7 +3226,7 @@
         <v>82</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -3249,7 +3249,7 @@
         <v>156</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -3260,19 +3260,19 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="F74" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -3283,7 +3283,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>157</v>
@@ -3295,7 +3295,7 @@
         <v>159</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -3306,7 +3306,7 @@
         <v>45</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>197</v>
@@ -3318,7 +3318,7 @@
         <v>199</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -3332,16 +3332,16 @@
         <v>44</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -3364,7 +3364,7 @@
         <v>70</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -3387,7 +3387,7 @@
         <v>122</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -3401,16 +3401,16 @@
         <v>45</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -3433,7 +3433,7 @@
         <v>94</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -3450,13 +3450,13 @@
         <v>48</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3479,7 +3479,7 @@
         <v>115</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -3502,7 +3502,7 @@
         <v>66</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -3525,7 +3525,7 @@
         <v>188</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -3548,7 +3548,7 @@
         <v>192</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -3571,7 +3571,7 @@
         <v>205</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>

--- a/app/src/main/assets/desease_data.xlsx
+++ b/app/src/main/assets/desease_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktros\AndroidStudioProjects\be_healthy\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8CD3C8-BCFD-448E-937C-0100497121C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD98708-74D0-40A2-A9FE-EAA578A3C302}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B1C56DE-772E-4008-A56D-EDA827635B8D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="441">
   <si>
     <t>Id</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Кожное заболевание аллергического характера</t>
   </si>
   <si>
-    <t>волдыри, зуд, отёчность кожи, покраснение кожи, сыпь</t>
-  </si>
-  <si>
     <t>Лоратадин 10 мг 1 раз в сутки&amp;Цетиризин по 0,01 г 1 раз в сутки (вечером)&amp;Ципрогептадин по 4-8 мг каждые 4-8 часов (детям — 0,25-0,5 мг/кг/сут каждые 6-8 часов)&amp;Фексофенадин (телфаст) — 180 мг 1 раз в сутки&amp;Эбастин взрослым 10-20 мг 1 раз в сутки, детям в виде сиропа</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>Синдром прокрашивания кожи, белков глаз и слизистых оболочек в разные оттенки желтого цвета</t>
   </si>
   <si>
-    <t>изменение цвета кожаных покровов, желтоватые глаза, жёлтые склеры глаз, зуд кожи, лихорадка, возможное изменение окраски стула и мочи</t>
-  </si>
-  <si>
     <t>Лечением желтухи занимаются: инфекционисты, терапевты, гематологи или хирурги</t>
   </si>
   <si>
@@ -209,27 +203,18 @@
     <t>Нарушение окраски кожи, характеризующееся появлением обесцвеченных, часто симметрично расположенных пятен различных размеров и очертаний, молочно-белого цвета</t>
   </si>
   <si>
-    <t>пятнистые высыпания, пятна белого цвета, разные оттенки кожи</t>
-  </si>
-  <si>
     <t>Метилпреднизолона ацепонат (адвантан и аналоги)&amp;Алклометезона дипропионат (афлодерм и аналоги) &amp;Бетаметазона дипропионат (актидерм и аналоги)&amp;Узкополосная ультрафиолетовая терапия (курс состоит из 20-100 процедур)&amp;Селективная фототерапия (широкополосная ультрафиолетовая терапия)</t>
   </si>
   <si>
     <t>Повышенная или извращенная чувствительность организма к какому-либо аллергену – веществу</t>
   </si>
   <si>
-    <t>кашель, насморк, одышка, покраснение глаз, слезотечение, сыпь, удушье, чихание</t>
-  </si>
-  <si>
     <t>Устранение аллергена&amp;Фармакотерапия&amp;Исключить из рациона: Хлопья, макароны, сладкое, чипсы, газированные напитки, цитрусовые, алкоголь, маринады, консервированные продукты, клубника.&amp;При самостоятельной покупке медикаментов, проконсультируйтесь с врачом. Мы не рекомендуем самостоятельно покупать медикаменты от аллергии.</t>
   </si>
   <si>
     <t>Пузырьковые высыпания на коже красно-жёлтого цвета</t>
   </si>
   <si>
-    <t>зуд, мелкие пузырьки на коже, покраснение кожи, сыпь</t>
-  </si>
-  <si>
     <t>Наружные глюкокортикоидные средства&amp;Тридерм, 2 раза в день&amp;Целестодерм B, 1-3 раза в день&amp;Лоринден C, не более 2 грамм мази в день за 2-3 раза, использовать не более 2-х недель&amp;Медикаментозное лечение экземы должно быть комплексным, с учетом характера поражений кожных покровов. Рекомендуем посетить эндокринолога, гастроэнтеролога, психоневролога.</t>
   </si>
   <si>
@@ -311,27 +296,18 @@
     <t xml:space="preserve">Воспаление слизистой оболочки глотки </t>
   </si>
   <si>
-    <t>высокая температура, першение в горле, боль в глотке, боль в нёбных миндалинах, боль при глотании, сухой кашель, слезотечение</t>
-  </si>
-  <si>
     <t>Цетрин по одной таблетке в день. Для детей разделить таблетку на два приёма&amp;Фенестил по 20-40 капель 3 раза в день, Для детей 10-15 капель три раза в день&amp;Фурацили для полоскания, растворить одну таблетку в 100 мл воды&amp;Убирается из рациона острая и жареная еда.&amp;Пища должна быть умеренной температуры (15-60 градусов)</t>
   </si>
   <si>
     <t>Развивается при повреждении чувствительных нервных клеток внутреннего уха, слухового нерва и центральных образований слуховой системы</t>
   </si>
   <si>
-    <t>шум в ушах, головокружение, тошнота, рвот</t>
-  </si>
-  <si>
     <t>Проведение лечения больного острой нейросенсорной тугоухостью в специализированном оториноларингологическом стационаре&amp;Незамедлительное начало лечения непосредственно после госпитализации&amp;Соблюдение щадящей диеты&amp;Отказ от курения и употребления алкогольных напитков</t>
   </si>
   <si>
     <t>Собирательное понятие, характеризующее все возможные заболевания респираторного тракта</t>
   </si>
   <si>
-    <t>насморк, сухой кашель, влажный кашель, боль в горле, першение в горле, покраснения в горле, охриплость, осиплость, снижение аппетита, увеличение лимфоузлов, бледность</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нурофен по 1 таблетке, 3-4 раза в сутки&amp;При температуре выше 38, Парацетомол по 1-2 таблетке, 3-4 раза в день т как минимум через час после еды&amp;Стрепсилс не более 8 таблеток в день с интервалом по 3 часа&amp;Пиносол по 1-2 капли в день в каждую ноздрю по 3-4 раза в сутки &amp;Обильное питьё </t>
   </si>
   <si>
@@ -341,9 +317,6 @@
     <t>Воспаление в области гайморовой пазухи, оно может возникать остро, или иметь хроническое течение</t>
   </si>
   <si>
-    <t>быстрая утомляемость, постоянная слабость, головная боль, постоянный насморк, нарушение обоняния, отсутствие свободного носового дыхания, слабый эффект от сосудосуживающих препаратов, выделения из носа, неприятный запах из носа</t>
-  </si>
-  <si>
     <t>Применяются тепловые процедуры на область пазух – соллюкс-лампа, УВЧ или лазеротерапия.&amp;Обычно используют  пенициллины (амоксиклав, амоксициллин), цефалоспорины (цефалексин) или макропен, зитролид.  Необходимо пропить один или два курса антибиотиков, в зависимости от степени тяжести и состояния пазух. &amp;Перед выбором антибиотиков посоветуйтесь обязательно с врачом</t>
   </si>
   <si>
@@ -353,9 +326,6 @@
     <t>Самая обширная группа инфекций, передающихся воздушно-капельным путем и вызывающих респираторные проявления разной степени выраженности</t>
   </si>
   <si>
-    <t>заложенность носа, насморк, першение в горле, боль при глотании, кашель, сонливость, головная боль, слезотечение, нарушение пищеварения, температура</t>
-  </si>
-  <si>
     <t xml:space="preserve">Киста почки </t>
   </si>
   <si>
@@ -374,18 +344,12 @@
     <t>Нарушается основная функция почек, выделительная</t>
   </si>
   <si>
-    <t>увеличивается количество выделяемой мочи, учащенное ночное мочеиспускание, отеки на лице, отеки вокруг глаз</t>
-  </si>
-  <si>
     <t>Соблюдение диеты – ограничение количества потребляемого белка, ограничение или полный запрет соли&amp;Снижение уровня артериального давления при наличии артериальной гипертензии&amp;Мочегонные препараты (Фуросемид, Верошпирон) (дозировки согласовать с врачом)&amp;Эритропоэтин при анемии (дозировки согласовать с врачом)&amp;Но с данным заболеванием, в первую очередь обратиться к врачу.</t>
   </si>
   <si>
     <t>Сильные, выраженные боли в поясничной области, отдающие в область живота, в паховую область и половые органы</t>
   </si>
   <si>
-    <t>резкая боль в пояснице, задержка мочеиспускания, кровь в моче, артериальное давление, тошнота</t>
-  </si>
-  <si>
     <t>Лучше всего вызвать скорую помощь и до приезда бригады скорой помощи можно начать снимать боль&amp;Принять обезболивающее (диклофенак 75мг; кеторолак 50мг)&amp;Спазмолитическое средство (дротаверин 40мг; бускопан 10-20мг) &amp;Принять теплую ванну&amp;Если нарушено мочеиспускание, необходимо ограничить прием жидкости</t>
   </si>
   <si>
@@ -395,9 +359,6 @@
     <t>Острое или хроническое воспаление в области уретры (мочеиспускательного канала) как у мужчин, так и у женщин</t>
   </si>
   <si>
-    <t>резь при мочеиспускании, боли внутри уретры, боль в половом органе, выделения</t>
-  </si>
-  <si>
     <t>Чаще всего назначают антибиотики с минимально возможным приемом, обычно раз или два в день. Курс лечения в среднем 5-10 дней, в зависимости от тяжести заболевания. Лечение проводится дома, под контролем врача.</t>
   </si>
   <si>
@@ -413,18 +374,12 @@
     <t>Инфекционное заболевание, характеризующееся поражением желудочно-кишечного тракта, преимущественно толстой кишки</t>
   </si>
   <si>
-    <t>боль в животе, озноб, повышенная температура, жидкий стул, потеря аппетита, пониженное давление</t>
-  </si>
-  <si>
     <t>Нитрофураны (фуразолидон, фурадонин по 0,1 г 4 раза в день&amp;Эрсефурил (нифуроксазид) 0,2 г 4 раза в сутки)&amp;Котримоксазол по 2 таблетки 2 раза в день&amp;Оксихинолины (нитроксолин по 0,1 г 4 раза в день, интетрикс по 1-2 таблетки 3 раза в день)</t>
   </si>
   <si>
     <t>Инфекционная болезнь, вызываемая бактериями дифтерии, передающаяся воздушно-капельным путем, характеризующаяся воспалением преимущественно слизистых оболочек рото- и носоглотки</t>
   </si>
   <si>
-    <t>бледность, лихорадка, тошнота, отек шеи, увеличение миндалин, головокружение</t>
-  </si>
-  <si>
     <t>Лечение подразумевает приём специализированной сыворотки, которая доступна только в медицинских учреждениях. Советуем вызвать врача</t>
   </si>
   <si>
@@ -434,42 +389,27 @@
     <t>Острая респираторная вирусная инфекция, вызванная вирусами группы А, В или С</t>
   </si>
   <si>
-    <t>температура, боль в области лба, озноб, мышечная ломота, слабость, боль в суставах, боль в пояснице, лихорадка, потеря аппетита</t>
-  </si>
-  <si>
     <t>Поражение ногтевых пластинок кистей и стоп грибком</t>
   </si>
   <si>
-    <t>хрупкость ногтя, утолщение стопы, утолщение ногтя, зуд, желтоватость ногтя, шелушение кожа</t>
-  </si>
-  <si>
     <t>Циклопирокс 2 раза в день&amp;Тербинафин 1-2 раза в день&amp;Аморолфин вместе с общим уходом за ногами 1-2 раза в неделю&amp;Кетоконазол по одной таблетке в день во время еды&amp;Ризеофульвин 1000 мг/сутки (ногти рук 4–9 месяцев; ногти ног 6–18 месяцев)</t>
   </si>
   <si>
     <t>Грибковое заболевание, поражающие кожаные покровы</t>
   </si>
   <si>
-    <t>зуд, пятна на коже, шелушение кожи</t>
-  </si>
-  <si>
     <t>Ацикловир по 800 мг 5 р/сут через каждые 4 часа (за исключением ночи) 7—10 дней&amp;Фамцикловир по 500—750 мг 3 р/сут внутрь в течение 7 дней&amp;Кетоконазол по 1 таблетке в день, во время еды</t>
   </si>
   <si>
     <t>Высоко заразное острое вирусное заболевание, протекающее с умеренно выраженной интоксикацией и характерной сыпью на коже и слизистых оболочках</t>
   </si>
   <si>
-    <t>головная боль, лихорадка, зуд, сыпь, температура</t>
-  </si>
-  <si>
     <t xml:space="preserve">Обработайте сыпь зелёнкой&amp;Не расчёсывайте высыпания&amp;Также назначается ацикловир в возрастной дозировке в течение 5-7 дней. Данное лечение актуально в первые двое суток после начала заболевания. </t>
   </si>
   <si>
     <t xml:space="preserve">Клещевой энцефалит вызывается особым видом вируса. В природе вирус переносят иксодовые клещи (энцефалитные) </t>
   </si>
   <si>
-    <t>боль во всём теле, укус клеща, онемение лица, слабость в конечностях, рвота, головная боль, помрачение сознания, нарушение сна</t>
-  </si>
-  <si>
     <t>Не пытайтесь самостоятельно лечить данное заболевание или при укусе клеща, самостоятельно его извлечь. Обратитесь в ближайшие медицинское учреждение или вызовите скорую.</t>
   </si>
   <si>
@@ -479,36 +419,24 @@
     <t>Одно из самых распространенных вирусных инфекций человека</t>
   </si>
   <si>
-    <t>пузырьковые высыпания на коже, зуд</t>
-  </si>
-  <si>
     <t xml:space="preserve">5%-ный крем ацикловира 5 раз в сутки в течение 5-7 дней.&amp;Гелпин - таблетки 0,125 г, по 1 таблетке перорально 4 раза в сутки в течение 5-7 дней&amp;Оксолин. 1 %- или 2%-ная мазь наносится на пораженные участки 3 раза в день.&amp;Тромантадин. Препарат в виде 1 %-ной мази наносят на пораженные участки 3 раза в сутки в течение 7-10 дней </t>
   </si>
   <si>
     <t>Возникает в процессе снижения уровня гемоглобина в крови</t>
   </si>
   <si>
-    <t>быстрая утомляемость, сонливость, бледность слизистых оболочек, изменённый цвет кожных покровов, одышка</t>
-  </si>
-  <si>
     <t xml:space="preserve">Основу лечения составляет быстрое устранение источника кровопотери в сочетании с переливанием коллоидных растворов (альбумина, протеина и т.п.) </t>
   </si>
   <si>
     <t>Тяжелое патологическое состояние, которое описывается, как нахождение возбудителя (микроба или грибков) в крови</t>
   </si>
   <si>
-    <t>сильная потливость, впалые щеки, кровоизлияния на коже, нарушение дыхания, озноб</t>
-  </si>
-  <si>
     <t>Только под наблюдением врача и его рекомендациями, совершают следующие действия:&amp;Антибиотики в максимальных дозах с учетом чувствительности, внутривенно.&amp;Проводят активную борьбу с токсикозом&amp;Активизируют собственную иммунную систему, корректируют нарушенные процессы жизнедеятельности.</t>
   </si>
   <si>
     <t>Нарушение функции кишечника, проявляющееся болями в животе и/или нарушениями дефекации</t>
   </si>
   <si>
-    <t>нарушение стула, боль в брюхе, боли в брюшной части, понижение аппетита, нарушение сна, потливость, сердцебиение, ощущение нехватки воздуха, учащение мочеиспускания</t>
-  </si>
-  <si>
     <t>Всем, без исключения, больным при синдроме раздраженного кишечника рекомендуется соблюдать диету исключения, не содержащую кофеин, лактозу, фруктозу, сорбитол, уксус, алкоголь, перец, копчености, а также продукты, вызывающие чрезмерное газообразование – молоко, кисломолочные продукты.&amp;При поносах эффект оказывают имодиум и алосетрон.&amp;При преобладании запоров показаны церукал и мотилиум.&amp;При упорных болях хороший эффект оказывают дицетел и дюспаталин&amp;Дозы и кратность приёма согласовать с фармацевтом или врачом</t>
   </si>
   <si>
@@ -551,9 +479,6 @@
     <t>Характеризуется повышенной чувствительностью организма к пищевым продуктам и развитием признаков непереносимости пищи, вызванных реакцией иммунной системы</t>
   </si>
   <si>
-    <t>рвота, колики, потеря аппетита, запоры, диарея</t>
-  </si>
-  <si>
     <t>При распространенных проявлениях пищевой аллергии антигистаминные препараты I поколения (тавегил, супрастин) вводят через рот в виде таблеток (кратность и дозы приёма уточняйте у врачей или фармацевтов)</t>
   </si>
   <si>
@@ -614,9 +539,6 @@
     <t>Заболевание, характеризующееся изменением слизистой оболочки желудка и сопровождающееся различными нарушениями его основных функций</t>
   </si>
   <si>
-    <t>боли в подложечной области, изжога, отрыжка, тяжесть в подложечной области после еды, неприятный привкус во рту, неустойчивый стул, снижение аппетита</t>
-  </si>
-  <si>
     <t>Антибиотики&amp;ИПП (омез, нольпаза, париет, эманера – вещества, использующиеся при лечении заболеваний &amp;ЖКТ, связанных с выделением соляной кислоты)&amp;Препараты висмута (де-нол, вентрисол)&amp;Перед выбором препаратов, обязательна консультация с врачом</t>
   </si>
   <si>
@@ -626,9 +548,6 @@
     <t>Комплексное заболевание, возникающее вследствие снижения качества и/или количества слезной жидкости</t>
   </si>
   <si>
-    <t>ощущение соринки в глазу, ощущение сухости в глазу, слезотечение, светобоязнь, сухо в глазу</t>
-  </si>
-  <si>
     <t xml:space="preserve">Капли «Слеза натуральная» по 1-2 капли при необходимости&amp;Лакривит по 1-2 капли, 4-8 раз в день&amp;Офтагель по 1 капли 1-4 раза в сутки &amp;Корнерегель по 1 капли в каждый глаз 3-5 раз в сутки </t>
   </si>
   <si>
@@ -653,9 +572,6 @@
     <t>Патология зрения</t>
   </si>
   <si>
-    <t>косоглазие, косые глаза, косой глаз, асимметрическое расположение зрачка</t>
-  </si>
-  <si>
     <t xml:space="preserve">Лечение проходит только у врачей&amp;Прежде всего, проводится устранение причин, которые спровоцировали косоглазие. Кроме того, необходимо добиться полного устранения косоглазия или сделать его хотя бы менее выраженным. </t>
   </si>
   <si>
@@ -674,9 +590,6 @@
     <t>Частичное или полное помутнение хрусталика - естественной оптической линзы человеческого глаза</t>
   </si>
   <si>
-    <t>ощущение мушек в глазах, двоение в глазах, признаки двоения предметов, прокрашивание предметов в желтоватый оттенок</t>
-  </si>
-  <si>
     <t>Глазные капли  Тауфон и Квинакс применяются для замедления процессов помутнения&amp;Основной метод лечения – удаление хрусталика с заменой его на искусственный (интраокулярную линзу)</t>
   </si>
   <si>
@@ -737,9 +650,6 @@
     <t>Заболевание головного мозга, возникающее обычно после 50 лет и характеризующееся прогрессирующим снижением интеллекта, нарушением памяти и изменением личности</t>
   </si>
   <si>
-    <t xml:space="preserve">расстройство памяти, снижение интеллекта, снижение критики к своему психическому состоянию, изменения личности, социальная дезадаптация </t>
-  </si>
-  <si>
     <t>Ипидакрин 10— 20 мг 1—3 р/сут. Длительность курсового лечения — не менее 2 мес&amp;Церебролизин 5—10 мл в/в в течение 20—25 дней&amp;Карбамазепин 100 мг 2— 3 р/сут при выраженном возбуждении и агрессии&amp;Перед покупкой/приёмом лекарств обязательно проконсультируйтесь с врачом</t>
   </si>
   <si>
@@ -788,18 +698,12 @@
     <t>Состояние, при котором артериальное давление равно или превышает 140 мм рт.ст.</t>
   </si>
   <si>
-    <t>головная боль в затылочной области, сердцебиение, боли в сердце, повышенное давление, гипертонический криз, головокружение</t>
-  </si>
-  <si>
     <t>Ограничение потребления поваренной соли до 5г/сутки&amp;Умеренные физические нагрузки 3-5 раз в неделю (ходьба, бег, плавание, лечебная физкультура)&amp;Уменьшение потребления алкоголя&amp;Индапамид 1,5 или 2, 5 мг в сутки&amp;Гипотиазид от 12,5 до 100 мг в сутки в один прием утром</t>
   </si>
   <si>
     <t>Воспаление сердечной мышцы, вызванное инфекционными, токсическими или аллергическими воздействиями и сопровождающееся нарушением функции</t>
   </si>
   <si>
-    <t>острая боль в сердце, боли в сердце, аритмия, сердцебиение, пониженное артериальное давление</t>
-  </si>
-  <si>
     <t xml:space="preserve">Рекомендуется ограничение физической активности&amp;Режим, как правило, постельный, а при тяжелом течении – строгий постельный на 2-3 недели&amp;При выявлении причины проводят соответствующее лечение, например антибактериальную, противовирусную терапию&amp;Обращение к врачу, обязательно </t>
   </si>
   <si>
@@ -845,36 +749,24 @@
     <t>Заболевание, поражающее артериальные сосуды (артерии) по всему организму</t>
   </si>
   <si>
-    <t xml:space="preserve">боль в области грудины, затруднения при глотании, охриплость голоса, постепенно нарастающая артериальная гипертензия </t>
-  </si>
-  <si>
     <t>Регулярные аэробные умеренные физические нагрузки&amp;Ограничение приема алкоголя (возможно потребление сухого красного вина до 100 мл в день, но не более)&amp;Необходимо по мере возможности избегать физических и психических перегрузок.&amp;Медикаментозная терапия атеросклероза - должна подбираться специалистом после обследования, с учетом противопоказаний и сопутствующих заболеваний.&amp;Симвастатин (Зокор)&amp;Аторвастатин (Липримар)&amp;Розувастатин (Крестор, Мертенил)</t>
   </si>
   <si>
     <t>Нарушение сердечной проводимости, а также частоты и регулярности его сокращений</t>
   </si>
   <si>
-    <t>перебои в работе сердца, чувство замирания сердца, загрудинные боли, чувство удушья, обмороки</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стабилизаторы мембран клеток (прокаинамид, тримекаин, пропафенон)&amp;Адреноблокаторы (конкор, эгилок, карведилол, соталол)&amp;Блокаторы калиевых каналов (амиодарон)&amp;Блокаторы кальциевых каналов (верапамил)&amp;Дозировки и наиболее эффективные препараты согласуйте с врачом </t>
   </si>
   <si>
     <t xml:space="preserve">Воспалительное заболевание дыхательной системы, характеризующееся преимущественным поражением бронхов </t>
   </si>
   <si>
-    <t>кашель, мокрота, повышенная температура</t>
-  </si>
-  <si>
     <t xml:space="preserve">Лазолван по 100 капель в день, 3 раза в сутки. Для детей 25 капель, 3 раза в сутки&amp;Аскорил по 1 таблетке, 3 раза в сутки&amp;Гербион 3 ложки, 3-4 раза в сутки после еды&amp;Амброгексал по 1 ложке, 2 раза в день. Для детей ¼ ложки 3 раза в день </t>
   </si>
   <si>
     <t>Вирусное или микробное инфекционно-воспалительное заболевание легких</t>
   </si>
   <si>
-    <t>боль в лёгких, боль во время кашля, лихорадка, слабость, тахикардия, хрипы при дыхании</t>
-  </si>
-  <si>
     <t>Основа лечения пневмонии – воздействие на причину. Это антимикробная или противовирусная терапия в комбинации с антибиотиками&amp;Заболевание подразумевает приём препаратов, которые выписываются только по рецепту.</t>
   </si>
   <si>
@@ -977,9 +869,6 @@
     <t>Расстройство работы головного мозга в следствии интенсивного или продолжительного воздействия солнечного света на поверхность головы</t>
   </si>
   <si>
-    <t>солнечный удар, головокружение, слабость, рвота, высокая температура тела, полностью отсутствующее потоотделение, сухая горячая кожа, потеря сознания, солнечный удар</t>
-  </si>
-  <si>
     <t>Больного необходимо поместить в тень или прохладное помещение&amp;Положить горизонтально, ноги приподнять&amp;Расстегнуть одежду и брючной ремень&amp;Побрызгать холодной водой на лицо&amp;Охладить голову&amp;Обтереть мокрым полотенцем все тело&amp;Поднести к носу нашатырь, для вдыхания паров&amp;При наличии сознания, напоить холодной водой</t>
   </si>
   <si>
@@ -1010,9 +899,6 @@
     <t xml:space="preserve">Повышенная потливость </t>
   </si>
   <si>
-    <t>повышенная потливость</t>
-  </si>
-  <si>
     <t>Необходимо исключить из рациона пищу, содержащую кофеин и теобромин - вещества, стимулирующие потоотделение. Такими продуктами являются: чай, кофе, какао, шоколад, кола…&amp;Принимать душ желательно два раза в день. Следует носить удобную одежду, не сковывающую движений, из натуральных или искусственных (вискоза) волокон, кожаную обувь по размеру. Не приобретайте синтетической одежды!&amp;Таких, как «Дрисол», «Одобан», «Максим» вместо обычных дезодорантов-антиперспирантов. Применение этих препаратов существенно снижает потоотделение.</t>
   </si>
   <si>
@@ -1049,15 +935,6 @@
     <t xml:space="preserve">Прорезывание зубов </t>
   </si>
   <si>
-    <t>колики у новорожденного</t>
-  </si>
-  <si>
-    <t>повышенное давление, избыточный вес, увеличение массы тела, одышка, боли в сердце, боль в суставах</t>
-  </si>
-  <si>
-    <t>пульсирующая головная боль, светобоязнь, тошнота, непереносимость громких звуков</t>
-  </si>
-  <si>
     <t>Жаропонижающие средства при лихорадке выше 38.5-39 градусов и плохом самочувствии (более низкую температуру сбивать не стоит) &amp;Препараты от насморка – отривин, санорин, пиносол по 1–2 капли в каждый носовой ход 3–4 раза в сутки&amp;Антисептические и противовоспалительные средства для зева (тантум-верде, гексорал,скаметон) по 1 впрыскиванию в течение 1–2 секунд 2 раза в сутки&amp;Противокашлевые (синекод, коделак) по 15 мл 4 раза в сутки, отхаркивающие (туссин, сироп подорожника) по 2-4 чайные ложки внутрь 3-4 раза/сут после еды, разжижающие мокроту средства (аскорил, ацц) по 10 мл сиропа 2–3 раза в день &amp;Можно применять методы народной терапии – отвары трав, чай с медом, малиной, молоко с медом</t>
   </si>
   <si>
@@ -1146,13 +1023,343 @@
   </si>
   <si>
     <t>Парацетомол по 1–2 табл. до 4 раз в день &amp;Ибупрофен 1–2 таблетки 2 раза в день с перерывом 4-6 часов &amp;Некст по 1 таблетке 2 раза в сутки</t>
+  </si>
+  <si>
+    <t>волдыри, зуд кожи, отёчность кожи, покраснение кожи, сыпь</t>
+  </si>
+  <si>
+    <t>изменение цвета кожи, желтоватые глаза, зуд кожи, жар, зноб, возможное изменение окраски стула и мочи</t>
+  </si>
+  <si>
+    <t>пятнистые высыпания, пятна белого цвета на коже, разные оттенки кожи</t>
+  </si>
+  <si>
+    <t>кашель, насморк, одышка, покраснение глаз, сыпь, удушье, чихание</t>
+  </si>
+  <si>
+    <t>зуд кожи, мелкие пузырьки на коже, покраснение кожи, сыпь</t>
+  </si>
+  <si>
+    <t>температура, першение в горле, боль в глотке, боль в нёбных миндалинах, боль при глотании, сухой кашель</t>
+  </si>
+  <si>
+    <t>шум в ушах, головокружение, тошнота, рвота</t>
+  </si>
+  <si>
+    <t>насморк, сухой кашель, влажный кашель, боль в горле, першение в горле, покраснения в горле, охриплость, осиплость, снижение аппетита, бледность</t>
+  </si>
+  <si>
+    <t>быстрая утомляемость, слабость, головная боль, насморк, нарушение обоняния, отсутствие свободного носового дыхания, неприятный запах из носа</t>
+  </si>
+  <si>
+    <t>заложенность носа, насморк, першение в горле, боль при глотании, кашель, сонливость, головная боль, нарушение пищеварения, температура</t>
+  </si>
+  <si>
+    <t>учащенное мочеиспускание, учащенное ночное мочеиспускание, отеки на лице, отеки вокруг глаз</t>
+  </si>
+  <si>
+    <t>боль в пояснице, задержка мочеиспускания, кровь в моче, повышенное давление, тошнота</t>
+  </si>
+  <si>
+    <t>боль при мочеиспускании, боль в половом органе, выделения</t>
+  </si>
+  <si>
+    <t>боль в животе, озноб, температура, жидкий стул, потеря аппетита, пониженное давление</t>
+  </si>
+  <si>
+    <t>бледность, жар, озноб, тошнота, отек шеи, покраснение миндалин, головокружение</t>
+  </si>
+  <si>
+    <t>температура, боль в области лба, озноб, мышечная ломота, слабость, боль в суставах, боль в пояснице, жар, потеря аппетита</t>
+  </si>
+  <si>
+    <t>хрупкость ногтя, увеличение стопы, утолщение ногтя, зуд, желтоватость ногтя, шелушение кожы</t>
+  </si>
+  <si>
+    <t>зуд кожи, пятна на коже, шелушение кожи</t>
+  </si>
+  <si>
+    <t>головная боль, жар, зуд кожи, сыпь, температура</t>
+  </si>
+  <si>
+    <t>боль во всём теле, укус клеща, онемение лица, слабость в конечностях, рвота, головная боль, помутнение сознания, нарушение сна</t>
+  </si>
+  <si>
+    <t>пузырьки коже, зуд кожи, пузырьки на губе</t>
+  </si>
+  <si>
+    <t>быстрая утомляемость, сонливость, изменённый цвет кожных покровов, одышка</t>
+  </si>
+  <si>
+    <t>потливость, впалые щеки, кровоизлияния на коже, нарушение дыхания, озноб</t>
+  </si>
+  <si>
+    <t>нарушение стула, боль в брюхе, понижение аппетита, нарушение сна, потливость, сердцебиение, ощущение нехватки воздуха, учащение мочеиспускания</t>
+  </si>
+  <si>
+    <t>рвота, колики в животе, потеря аппетита, запоры, диарея</t>
+  </si>
+  <si>
+    <t>колики у младенца</t>
+  </si>
+  <si>
+    <t>изжога, отрыжка, тяжесть в области живота после еды, неприятный привкус во рту, неустойчивый стул, снижение аппетита</t>
+  </si>
+  <si>
+    <t>повышеное давление, избыточный вес, увеличение массы тела, одышка, боли в сердце, боль в суставах</t>
+  </si>
+  <si>
+    <t>ощущение соринки в глазу, ощущение сухости в глазу, светобоязнь, сухость в глазу</t>
+  </si>
+  <si>
+    <t>косоглазие, косые глаза</t>
+  </si>
+  <si>
+    <t>ощущение мушек в глазах, двоение в глазах, прокрашивание предметов в желтоватый оттенок</t>
+  </si>
+  <si>
+    <t>головная боль, светобоязнь, тошнота, непереносимость громких звуков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">расстройство памяти, снижение критики к своему состоянию, изменения личности, социальная дезадаптация </t>
+  </si>
+  <si>
+    <t>головная боль в затылочной области, сердцебиение, боли в сердце, повышенное давление, головокружение</t>
+  </si>
+  <si>
+    <t>острая боль в сердце, боли в сердце, аритмия, сердцебиение, пониженное давление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">боль в области грудины, затруднения при глотании, охриплость голоса, повышенное давление </t>
+  </si>
+  <si>
+    <t>чувство замирания сердца, загрудинные боли, чувство удушья, обмороки</t>
+  </si>
+  <si>
+    <t>боль в лёгких, боль во время кашля, жар, слабость, тахикардия, хрипы при дыхании</t>
+  </si>
+  <si>
+    <t>солнечный удар, головокружение, слабость, рвота, высокая температура тела, полностью отсутствующее потоотделение, сухая горячая кожа, потеря сознания</t>
+  </si>
+  <si>
+    <t>повышенная потливость, быстро потею</t>
+  </si>
+  <si>
+    <t>кашель, мокрота, температура</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/krapivnica</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/zheltuha</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/vitiligo</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/allergiya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/ekzema</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/gipetoroz</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/angina</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/otit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/orz</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/gaimorit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/orvi</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/kistapochki</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/pochkikolika</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/uretrit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/butolizm</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/difteriya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/gripp</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/gribok</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/lishay</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/ospa</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/gerpes</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/anemiya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/sepsis</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/srk</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/diareya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/disbakterioz</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/zapori</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/koliki</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/otravlenie</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/grizha</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/enterit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/yazva</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/gastrit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/ozhirenie</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/konyuktivit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/glaukoma</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/presbiopiya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/migren</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/golovnayabol</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/bessonica</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/depressiya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/alcgeimer</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/anorexiya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/son</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/pms</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/mestruacia</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/gipertoniya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/miokardit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/perikardit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/serdechnayanedostatochnost</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/veni</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/ateroskleroz</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/aritmiya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/bronhit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/pnevmoniya</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/astma</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/osteoartroz</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/osteohondroz</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/svyazki</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/karies</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/prorezivaniyazybov</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/pulpit</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/ozhog</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/ushib</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/gematoma</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/bolvmishcah</t>
+  </si>
+  <si>
+    <t>http://chinahealth.tilda.ws/product/pochki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1195,6 +1402,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1228,10 +1450,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1245,14 +1468,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1565,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AA2D12-BC08-483C-B762-BD95F6AF234A}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1577,7 +1807,7 @@
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,864 +1824,866 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+        <v>352</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+        <v>240</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>85</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>67</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>61</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>85</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+        <v>286</v>
+      </c>
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
+      </c>
+      <c r="D14" t="s">
+        <v>371</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+        <v>243</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+        <v>235</v>
+      </c>
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="F17" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
+        <v>357</v>
+      </c>
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+        <v>284</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
+      </c>
+      <c r="D22" t="s">
+        <v>364</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+        <v>222</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+        <v>73</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+        <v>330</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+        <v>201</v>
+      </c>
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>344</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="F32" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+        <v>263</v>
+      </c>
+      <c r="E34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>361</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
         <v>356</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2460,44 +2692,44 @@
       <c r="C39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>360</v>
+      </c>
+      <c r="E40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2506,90 +2738,90 @@
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E41" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
         <v>348</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+        <v>122</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E43" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>63</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+        <v>223</v>
+      </c>
+      <c r="D44" t="s">
+        <v>365</v>
+      </c>
+      <c r="E44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2598,90 +2830,90 @@
       <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>337</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>26</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>347</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2691,135 +2923,135 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+        <v>358</v>
+      </c>
+      <c r="E49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>80</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+        <v>274</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>17</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E51" t="s">
+        <v>301</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>15</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="D52" t="s">
+        <v>338</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+        <v>92</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+        <v>252</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>73</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+        <v>253</v>
+      </c>
+      <c r="D54" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2828,619 +3060,619 @@
       <c r="C55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>90</v>
+      <c r="D55" t="s">
+        <v>85</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+        <v>86</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+        <v>276</v>
+      </c>
+      <c r="E56" t="s">
+        <v>277</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>11</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>40</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>64</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>37</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
         <v>355</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>40</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>64</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>37</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>39</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+        <v>153</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>74</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+        <v>257</v>
+      </c>
+      <c r="E63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>215</v>
+      </c>
+      <c r="E64" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
+        <v>368</v>
+      </c>
+      <c r="E65" t="s">
+        <v>245</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>86</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
+        <v>370</v>
+      </c>
+      <c r="E66" t="s">
+        <v>289</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G66" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>51</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>77</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+        <v>265</v>
+      </c>
+      <c r="D69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>78</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+        <v>269</v>
+      </c>
+      <c r="E70" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>75</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+        <v>259</v>
+      </c>
+      <c r="D71" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>9</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
+        <v>77</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>32</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+        <v>353</v>
+      </c>
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+        <v>230</v>
+      </c>
+      <c r="D74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" t="s">
+        <v>232</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+        <v>354</v>
+      </c>
+      <c r="E75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" t="s">
+        <v>319</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>45</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F76" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" t="s">
         <v>359</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
+      <c r="E76" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" t="s">
+        <v>318</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E77" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" t="s">
+        <v>279</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" t="s">
         <v>316</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
-        <v>6</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+      <c r="G78" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
+        <v>108</v>
+      </c>
+      <c r="D79" t="s">
+        <v>343</v>
+      </c>
+      <c r="E79" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" t="s">
+        <v>329</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
+        <v>314</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>13</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
+        <v>325</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3450,138 +3682,199 @@
         <v>48</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
+      </c>
+      <c r="E82" t="s">
+        <v>272</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
+        <v>325</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>341</v>
+      </c>
+      <c r="E83" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" t="s">
+        <v>322</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="D84" t="s">
+        <v>335</v>
+      </c>
+      <c r="E84" t="s">
+        <v>61</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
+        <v>316</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>41</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>188</v>
+        <v>161</v>
+      </c>
+      <c r="D85" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" t="s">
+        <v>163</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
+        <v>319</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>42</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
+      </c>
+      <c r="D86" t="s">
+        <v>166</v>
+      </c>
+      <c r="E86" t="s">
+        <v>167</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
+        <v>319</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>47</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="D87" t="s">
+        <v>177</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>408</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H88">
     <sortCondition ref="B1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G41" r:id="rId1" xr:uid="{FDFA4B20-AF29-4C86-8F4C-9090AA8AEA56}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{598ABB4B-9DB7-422A-9173-941995B0CB13}"/>
+    <hyperlink ref="G78" r:id="rId3" xr:uid="{8723A815-FBF3-499C-9E84-B0CD5AC23F55}"/>
+    <hyperlink ref="G58" r:id="rId4" xr:uid="{BF4D2D07-E470-46AF-B49C-E5AB3BE3DABF}"/>
+    <hyperlink ref="G23" r:id="rId5" xr:uid="{B343ED2A-2953-49B1-A0F4-E1A21DA06001}"/>
+    <hyperlink ref="G72" r:id="rId6" xr:uid="{D1AB5F7E-28BB-459A-8F64-1421AC15776D}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{C60737F3-BE26-4C37-ADE2-6A1924313637}"/>
+    <hyperlink ref="G55" r:id="rId8" xr:uid="{F6A6B3FD-E1C9-412B-B2E6-D4B60F9487A4}"/>
+    <hyperlink ref="G81" r:id="rId9" xr:uid="{E412C74A-2045-49CF-8FCB-79C9DA112506}"/>
+    <hyperlink ref="G47" r:id="rId10" xr:uid="{3C9C244C-0849-4E4B-BC7D-052A5BA46E72}"/>
+    <hyperlink ref="G52" r:id="rId11" xr:uid="{94F04A64-36CF-4147-B7B5-F56B4194D4BC}"/>
+    <hyperlink ref="G51" r:id="rId12" xr:uid="{3308AC2B-332C-4A80-AC95-6D0E4F4945BB}"/>
+    <hyperlink ref="G36" r:id="rId13" xr:uid="{84DE7159-BA76-4958-BF9D-423E2F0AEA92}"/>
+    <hyperlink ref="G67" r:id="rId14" xr:uid="{1A73BD4F-205A-429A-851F-431CB1679D05}"/>
+    <hyperlink ref="G79" r:id="rId15" xr:uid="{C2FDB5DF-CFE0-4A99-9E98-1AA0BC710583}"/>
+    <hyperlink ref="G13" r:id="rId16" xr:uid="{051A59F3-E2FB-4B35-AA64-76BD3E0D7D5E}"/>
+    <hyperlink ref="G26" r:id="rId17" xr:uid="{DD62CA09-68EB-4BF0-953C-89C93BFFA132}"/>
+    <hyperlink ref="G42" r:id="rId18" xr:uid="{D0C6DC3C-CA17-4190-8187-F42382D61332}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{68A0955F-1675-4143-A22F-827B5D609D4B}"/>
+    <hyperlink ref="G37" r:id="rId20" xr:uid="{2E888BCE-AD36-4A1C-9D6F-425FF099B9A6}"/>
+    <hyperlink ref="G21" r:id="rId21" xr:uid="{0C102159-95E7-4A4B-9EF0-0C998D3E76DA}"/>
+    <hyperlink ref="G4" r:id="rId22" xr:uid="{1269AFFA-F4DA-451F-B387-9A766A57F0FD}"/>
+    <hyperlink ref="G73" r:id="rId23" xr:uid="{EBD9FA09-2149-4130-B4EC-104191123D69}"/>
+    <hyperlink ref="G75" r:id="rId24" xr:uid="{3FB6A80D-52A6-4174-8FBC-1F84B9D14489}"/>
+    <hyperlink ref="G28" r:id="rId25" xr:uid="{11294628-B7E4-4519-B0D1-7A6C378C5998}"/>
+    <hyperlink ref="G30" r:id="rId26" xr:uid="{6883A347-38FD-417E-AF52-BAA3B0B5F228}"/>
+    <hyperlink ref="G33" r:id="rId27" xr:uid="{C9DDF33B-618B-463E-95E5-AC1B6CF7E7E6}"/>
+    <hyperlink ref="G61" r:id="rId28" xr:uid="{20E53CD6-4D69-4313-8313-B0F3923250CD}"/>
+    <hyperlink ref="G38" r:id="rId29" xr:uid="{99384B4D-DDF7-49D5-9422-28D9F3D95DF4}"/>
+    <hyperlink ref="G59" r:id="rId30" xr:uid="{FACF3A3C-5F96-4AD3-BEA2-E296527756EB}"/>
+    <hyperlink ref="G85" r:id="rId31" xr:uid="{94D8D182-F6C3-49B6-9C15-0238F4716CAE}"/>
+    <hyperlink ref="G49" r:id="rId32" xr:uid="{459DE092-E5D7-400C-B1EE-4DAFD3AD1EFC}"/>
+    <hyperlink ref="G39" r:id="rId33" xr:uid="{CCB520EA-F791-479A-856B-D3849164ADCB}"/>
+    <hyperlink ref="G87" r:id="rId34" display="http://chinahealth.tilda.ws/product/disbakterioz" xr:uid="{0460272B-5988-4B47-8FFB-180A54C677E3}"/>
+    <hyperlink ref="G24" r:id="rId35" xr:uid="{792647CD-C30A-42F2-A141-DD78523CABAC}"/>
+    <hyperlink ref="G35" r:id="rId36" display="http://chinahealth.tilda.ws/product/disbakterioz" xr:uid="{176A1B78-B941-4884-859F-675ADA065D02}"/>
+    <hyperlink ref="G68" r:id="rId37" xr:uid="{8AEB48BC-E669-4585-A915-A8CA1352CA31}"/>
+    <hyperlink ref="G45" r:id="rId38" xr:uid="{6DBF16BA-C6C7-470E-8FEC-A12595AD5E00}"/>
+    <hyperlink ref="G43" r:id="rId39" xr:uid="{E02F4D73-CECC-4859-9B37-8BF5BA0E00EF}"/>
+    <hyperlink ref="G25" r:id="rId40" xr:uid="{FF2A770A-4CD5-4519-A198-6B66239D6B44}"/>
+    <hyperlink ref="G9" r:id="rId41" xr:uid="{2869DC6C-63B4-4304-99BD-240CDF02A9DA}"/>
+    <hyperlink ref="G11" r:id="rId42" xr:uid="{C342A001-23D6-4A81-8C0C-D63B8F9AC685}"/>
+    <hyperlink ref="G64" r:id="rId43" xr:uid="{134D7CC6-E2FC-4A1E-B7F2-BF5E20B78168}"/>
+    <hyperlink ref="G10" r:id="rId44" xr:uid="{13ECC258-3637-4BD3-AA0F-C5921F83005C}"/>
+    <hyperlink ref="G22" r:id="rId45" xr:uid="{4628A169-DA53-4D2E-ADEA-EC12F601C34E}"/>
+    <hyperlink ref="G60" r:id="rId46" xr:uid="{CE9935D2-A97B-4901-A3F1-78FEDE77B2AE}"/>
+    <hyperlink ref="G74" r:id="rId47" display="http://chinahealth.tilda.ws/product/serdechnayanedostatochnos" xr:uid="{66B481D1-6AC8-4946-BE54-E0FC245E8CAB}"/>
+    <hyperlink ref="G15" r:id="rId48" xr:uid="{F654B1FF-303C-4986-B93B-58D49FB11AD9}"/>
+    <hyperlink ref="G6" r:id="rId49" xr:uid="{EEE3615F-4166-42FE-8460-C384CAA396C9}"/>
+    <hyperlink ref="G14" r:id="rId50" xr:uid="{8F65EEBC-C168-4A37-B897-E5875F14B972}"/>
+    <hyperlink ref="G7" r:id="rId51" xr:uid="{EC2320BC-4F8E-4CAE-BEE1-EDEA120F64EA}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{6DE00866-87E2-4F56-A7F1-42053EEF59CF}"/>
+    <hyperlink ref="G71" r:id="rId53" xr:uid="{793F5F02-709F-4BD4-96B5-E33766C64325}"/>
+    <hyperlink ref="G69" r:id="rId54" xr:uid="{23DF86BD-BA97-46F9-A83B-A406619B1E0D}"/>
+    <hyperlink ref="G82" r:id="rId55" xr:uid="{7E4DF20B-866A-495D-9D8F-0F769F52F867}"/>
+    <hyperlink ref="G50" r:id="rId56" xr:uid="{41E7F4E8-1F69-4D6C-80BB-2B3EBDBCBBB7}"/>
+    <hyperlink ref="G56" r:id="rId57" display="http://chinahealth.tilda.ws/product/pulpit" xr:uid="{7F7C4103-261D-4B7F-A972-21D25D5904E2}"/>
+    <hyperlink ref="G20" r:id="rId58" xr:uid="{63E5F505-020C-44D6-A8F6-8C9D58E9B300}"/>
+    <hyperlink ref="G83" r:id="rId59" xr:uid="{AD864631-7E88-485B-80C4-37B48E2F0A26}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId60"/>
 </worksheet>
 </file>